--- a/【西安-李斌】组员进度表.xlsx
+++ b/【西安-李斌】组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,19 @@
   </si>
   <si>
     <t>商城静态页面的搭建</t>
+  </si>
+  <si>
+    <t>不是很理想</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>获取数据中变量拼接问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学了一段时间的js,jQuery,ajax,回过头来突然发现html，css样式不熟练了，还得活学活用</t>
   </si>
   <si>
     <t>第二天</t>
@@ -70,9 +83,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +112,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -106,6 +127,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,29 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +188,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -171,24 +211,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,39 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,24 +262,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,6 +310,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,139 +376,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,35 +450,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +470,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,32 +515,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1059,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1055,7 +1068,7 @@
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1086,17 +1099,25 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1105,10 +1126,10 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1117,10 +1138,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1129,10 +1150,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【西安-李斌】组员进度表.xlsx
+++ b/【西安-李斌】组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>达人静态页面的搭建</t>
+  </si>
+  <si>
+    <t>未按计划完成，ajax请求一组数据</t>
+  </si>
+  <si>
+    <t>在敲代码过程中总会出现很多bug，自己单独不能解决，需要别人的帮忙</t>
+  </si>
+  <si>
+    <t>ajax的参数获取，在页面中的体现</t>
   </si>
   <si>
     <t>第三天</t>
@@ -82,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,7 +121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,9 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,22 +151,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,14 +166,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,11 +179,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,28 +218,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +242,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,24 +271,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,151 +331,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +456,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,30 +493,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -506,11 +515,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,25 +532,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,16 +576,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,16 +594,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,97 +612,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1068,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1068,8 +1077,8 @@
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.95" customHeight="1" spans="1:6">
@@ -1119,17 +1128,25 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1138,10 +1155,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1150,10 +1167,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【西安-李斌】组员进度表.xlsx
+++ b/【西安-李斌】组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -74,10 +74,36 @@
     <t>数据请求</t>
   </si>
   <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>晚上还未完成</t>
+  </si>
+  <si>
+    <t>链接的时候出现问题</t>
+  </si>
+  <si>
+    <t>ajax先请求数据，根据所获得的数据进行页面的搭建布局</t>
+  </si>
+  <si>
     <t>第四天</t>
   </si>
   <si>
     <t>优化，PPT的制作</t>
+  </si>
+  <si>
+    <t>单个页面的信息获
+取不是很顺利</t>
+  </si>
+  <si>
+    <t>加班加点</t>
+  </si>
+  <si>
+    <t>ajax请求数据的时候如何让
+商品信息单个显示在另一个页面</t>
+  </si>
+  <si>
+    <t>自己所掌握的东西还是很薄弱。以后还需要多加练习</t>
   </si>
   <si>
     <t>第五天</t>
@@ -91,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,6 +142,104 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,20 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,91 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,49 +297,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,127 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,30 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,15 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +541,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1094,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1078,7 +1104,7 @@
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.95" customHeight="1" spans="1:6">
@@ -1148,29 +1174,45 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【西安-李斌】组员进度表.xlsx
+++ b/【西安-李斌】组员进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="进度表" sheetId="2" r:id="rId1"/>
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -145,6 +145,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -152,53 +206,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,71 +238,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,79 +297,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,97 +453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,17 +485,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +541,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -525,40 +560,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,130 +605,130 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1127,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:6">
+    <row r="2" ht="50" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1147,20 +1147,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:6">
+    <row r="3" ht="48" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1187,7 +1187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:6">
+    <row r="5" ht="48" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
